--- a/StudentContractStatusOfflineFull.xlsx
+++ b/StudentContractStatusOfflineFull.xlsx
@@ -35414,8 +35414,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004FCDFA7A2F30174A8A8ADBFCD07FE51F" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fc6ca24c77f3ba440697e7f5559e0a9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d571cd6c-2eb1-4859-8477-07b497c03897" xmlns:ns3="1b935c95-1264-4e43-92a6-b77a9fa76fde" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a583399e38e928da0364b05454dff5cb" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004FCDFA7A2F30174A8A8ADBFCD07FE51F" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="762b3bd12eec22788c66c1c1dd4376d7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d571cd6c-2eb1-4859-8477-07b497c03897" xmlns:ns3="1b935c95-1264-4e43-92a6-b77a9fa76fde" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4af73dc1122bd28e944b9aa5769e26f6" ns2:_="" ns3:_="">
     <xsd:import namespace="d571cd6c-2eb1-4859-8477-07b497c03897"/>
     <xsd:import namespace="1b935c95-1264-4e43-92a6-b77a9fa76fde"/>
     <xsd:element name="properties">
@@ -35436,6 +35436,10 @@
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -35507,6 +35511,16 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1b935c95-1264-4e43-92a6-b77a9fa76fde" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -35521,6 +35535,32 @@
           </xsd:extension>
         </xsd:complexContent>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="23" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="24" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -35643,7 +35683,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8288B8FB-FB81-4F50-BCC6-1F7341CC6FFA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E202A17-A8EE-4915-8570-683977399D91}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
